--- a/500all/speech_level/speeches_CHRG-114hhrg20106.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20106.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. The Executive Overreach Task Force will come to order. And, without objection, the Chair is authorized to declare a recess of the Task Force at any time. I'll recognize myself for opening statement.    Today's hearing will focus on executive overreach in foreign affairs. The Constitution grants the President as Commander in Chief clear powers in foreign affairs. However, the Constitution also provides for a check on those powers by, for example, requiring that the Senate approval international treaties and that Congress appropriate all funds needed to foreign military engagements.    I'll focus my remarks today on two troubling developments as it relates to those checks the Constitution grants to the Congress and not the President. Regarding the Senate's treaty ratification powers in Paris late last year, the Obama administration also took part in the 21st Conference of Parties to the United Nations Framework Convention on Climate Change.    Senior Administration officials, including Secretary of State John Kerry, Environmental Protection Agency Administrator Gina McCarthy, and Secretary of Energy Ernest Moniz--who visited Ames, Iowa, just this past week, and I thank him for that--negotiated the final terms of a new climate change pact, the so-called Paris Agreement. The agreement involves the commitments that will affect every part of the U.S. And the Obama administration intends to meet those commitments by requiring changes to State law. These Paris Agreement criteria and others listed by the State Department itself in what's called the Circular 175 procedure show clearly that the Paris Agreement is a treaty that requires the approval the Senate, under Article II, Section 2, Clause 2, of the Constitution, which provides the President shall have power by and with the advice and consent of the Senate to make treaties provided two-thirds of the Senators present concur.    Despite this, President Obama has made clear through his spokesperson that he has no intention of consulting or including either the Senate or anyone in Congress in any aspect of the international treaty. On March 31, 2015, White House spokesman Josh Earnest was asked at a press conference briefing whether Congress has the right to approve the Paris Agreement. Mr. Earnest responded, speaking for the President, as follows, ''I think it's hard to take seriously from some Members of Congress who deny the fact that climate change exists that they should have some opportunity to render judgment about a climate change agreement.''    Well, think of that for a moment. The chief spokesperson said that, simply because Members of Congress disagree with the President's environmental policies, the constitutional requirement that a treaty be submitted to the Senate for approval is negated. That's outrageous, and it's unlawful. And it's a clear example of the executive overreach in the area of foreign affairs.    Regarding the President's powers in war, the President does have much greater constitutional authority in the areas of military affairs than he does in domestic affairs. Yet, even in the case of war, the President's powers are not unlimited. One clear limitation on that power is Congress' constitutional authority to appropriate all Federal funds for use on anything, including war. Yet President Obama has evaded Congress' control over military appropriations, as many Presidents have, by using accounting gimmicks to move funds Congress approved for one purpose to another, as was done to pay for the U.S. intervention in Libya.    Today, Congress' power of the purse is weakened because the President has many ways to evade Congress' control over military appropriations, namely accounting procedures to move funds Congress approved for one purpose to another purpose Congress has not approved.    In the case of the intervention in Libya, President Obama paid for that conflict entirely out of funds reallocated from other Defense Department accounts. Harold Koh, President Obama's own former legal adviser to the Department of State, has also written that the President has developed over time a whole range of devices to exploit spending loopholes in the appropriation process. When Congress grants the President statutory drawdown authority, he may withdraw certain funds simply by determining that such withdrawals are vital to the security of the United States. Similar statutory provisions allow the President access to special and contingency funds based upon nebulous findings that the use of those funds is important to the security of the United States or to the national interest.    When given statutory transfer and reprogramming authority, the President has transferred--the President transfers to one appropriations account funds initially appropriated for another or may reprogram appropriated funds within a single appropriation account, often without specific statutory authority. This is yet another example of executive overreach, albeit it one that Congress has been complicit to some extent. Nevertheless, it is an issue that this Task Force should consider.    And I also am thinking about the Iranian treaty agreement, and I expect there will be some remarks with regard to that a little bit later today. And I would point out that Congress has controlled funds with regard to war and done so effectively. And if one would read back through the appropriations debate and language that shut off all funds to support the Vietnam war: In the land of Vietnam and the seas adjacent to it, the skies over it, or the countries adjacent to it, or the skies over them, no funds would be used to conduct the Vietnam war. And it effectively, I'll say, de facto took ammunition off the docks at Da Nang by an act of Congress by using the appropriations language to shut down a war. So that's an example of how a President did honor the wishes of Congress, and we're going to want to talk today about that, but in the meantime, I look forward to hearing from all of our witnesses here today on these and many other issues.    And I would recognize the Ranking Member, Mr. Cohen from Tennessee, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair. I would first like to submit for the record my prepared marks, which I will not refer to in my remarks, for entry into the record.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Oh, no. You were the one in the Cadillac driving by.</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>400154</t>
   </si>
   <si>
-    <t>Bob Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Well, thank you, Chairman King, for convening this third hearing of the Task Force on Executive Overreach. And I've been very interested to hear the dialogue I've just heard and especially the comments of the Ranking Member, because I look forward to the transition that will take place when we have a bipartisan effort to halt executive overreach, because it occurs in every Administration of both parties. It's occurring right now. And the point isn't whether you believe in a particular point of view about climate change or whether you believe in the necessity of doing something about nuclear weapons in Iran, we all agree on the need to do some things, not necessarily do the same things. The question is, under the United States Constitution, who has the authority to do it? And there we have a serious difference of opinion.    I have to tell you: one of the lowest days in the time that I have served in Congress was the day that President Obama came to the House to give his State of the Union address before a Joint Session of the Congress, and at the end of his long laundry list of things that he wanted Congress to do, that every President has of either party--they always have a list of things they want done--at the end of his, he said, ``And if you don't do it, I will.'' By what authority under the United States Constitution? And the really--the reason why it was such a low day for me was that so many Members of your party stood up and gave a standing ovation to the President when he said: I'm going to take your power, the people's power in the elected Representatives of the Congress, and I'm going to use them for other purposes.    Mr. Chairman, could I have order?</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>400080</t>
   </si>
   <si>
-    <t>John Conyers, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    I welcome the witnesses.    And to my colleagues, the issue of appropriate roles of the Congress and the President is a subject worthy of a genuinely substantive discussion. And I think it's a very important discussion that's involved in the hearing today. For instance, we could consider whether our Nation's current military operations against the Islamic State of Iraq and Syria have been properly authorized by Congress. I won't go into detail, but I'm involved in research on that subject at the present moment.    Unfortunately, today's hearings may be turning into an attack against the current Administration. Let's start off with this proposition: neither the Iran nuclear agreement nor the Paris climate change agreement is a treaty within the meaning of the Constitution's Treaty Clause that requires Senate consent.    The Paris climate change agreement, for example, contains no mandatory quantitative emission standards or reductions. Rather, it is a strong exhortation that parties take concrete, transparent, but ultimately self-directed steps to reduce greenhouse gas emissions. Contrary to the assertions of some, this agreement does not contain legally binding requirements, nor does it purport to grant new authority to the President to meet any such requirements.    In short, it doesn't meet the traditional criteria of a treaty within the meaning of the Treaty Clause. And the Iran agreement was a set of political commitments rather than legally binding requirements. Thus, it also was not constitutionally required to be subject to Senate approval.    In addition, both agreements are consistent with existing law of the United States of America. For instance, the statutes imposing sanctions on Iran for its nuclear weapons program also give the President the discretion to remove these sanctions should certain criteria be met. And the Paris climate agreement was reached pursuant to a 1992 climate change treaty that the Senate had already ratified. In other words, the Paris Agreement is consistent with the obligations created by a treaty that, under the Supremacy Clause, was already the law of the land.    Now, as professor Vladeck correctly notes, arguments questioning the legality of these agreements are part of an ongoing attempt to paint policy disputes as constitutional matters. Whatever one thinks about the merits of either the Iran nuclear agreement or the Paris climate agreement, the Constitution and the historical practice make clear that the President was within his authority to enter into them. At any rate, Congress has already had the opportunity to make its voice heard.    With respect to the Iran nuclear agreement, Congress had the chance to disapprove the agreement, but opponents of the agreement failed to obtain the necessary votes to prevent the agreement from taking effect. And as I noted and conclude, the Senate long ago ratified the climate change treaty pursuant to which the Paris Agreement was entered. So rather than sparking enlightened discussion, today's hearing I fear may be a string of partisan exercises by the Task Force, but I think it's important that we move on, and I thank our witnesses for appearing today. I look forward to hearing their testimony, and I thank the Chair.</t>
   </si>
   <si>
@@ -163,27 +148,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kontorovich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kontorovich. Thank you, Chairman King, Ranking Member Cohen, Ranking Member of the Committee Conyers and honorable Members of Committee. It is a great pleasure to be here today to discuss these matters with you.    I'll state one thing for the record: I have the pleasure to say we are now the Northwestern Pritzker School of Law. And our generous donor would be happy to hear me say that, I hope. So the executive, nobody would dispute, has vast discretion in foreign affairs, discretion imparted both by the Constitution, which gives the executive a primary role in the conduct of foreign affairs because of the greater capacity of a single individual to enter into negotiations and conduct dealings with foreign countries and also because Congress on top of that already broad discretion, has given the executive vast leeway through statutes that allow for waivers and many other delegations of broad authority.    However, Congress also has constitutional powers, core Article I powers, including the foreign commerce power, spending power, which can greatly affect foreign affairs. And when these powers are exercised in the realm of foreign affairs, they are no less valid and no less plenipotentiary because they involve diplomacy or matters involving other countries.    Now, indeed, because the executive's powers in foreign affairs are so broad, it is hard for the executive to overreach. It's hard. But that makes it all the more amazing and all the more worrisome when the executive does indeed overreach. Because when one has vast power, claiming even more is even more problematic.    I'm going to briefly mention two examples, two recent examples, of what I see as such overreach, involving two core Article I powers of Congress: the foreign commerce power, involving the Iran Sanctions Act, and the spending power, involving funding to certain United Nations agencies.    As Chairman Goodlatte mentioned, the Iran Sanctions Review Act requires that the President transmit, as a condition for the sanctions relief that the act enables, that the President transmit the entire agreement. The language of this provision in the Iran Review Act is extraordinarily vast, and it looks like it was written by teams of redundant lawyers. And it bears quoting again: ``these agreements include appendices, annexes, codicils, side agreements, implementing materials, documents''--that's one broad category; the question is, is this a ``document?''--``guidance, technical or other understandings,'' and lots of other stuff.    The question is, are the relevant materials involving arrangements between the International Atomic Energy Agency and Iran, for inspection and review of their nuclear program, is that a document, material, codicil, and so forth, under the deal? And it seems quite clear that it is. It's actually mentioned and incorporated by reference in the Joint Comprehensive Plan of Action itself, and as such, it must be transmitted to Congress for the review period under the act to begin.    If that review period does not begin, sanctions cannot be lifted. It is true, as Ranking Member Conyers pointed out, that prior statutory sanctions had waiver provisions. But just as Congress can allow the President to waive, it can cabin and take back that waiver authority, which is exactly what happened in the Iran Nuclear Sanctions Review Act. As a result, the current lifting of some sanctions is legally problematic, and even more troubling is the executive's apparent desire to leverage this to now intimidate states into abandoning their lawful sanctions, which, again, the Iran Nuclear Review Act would prohibit.    Now, a separate law involves Congress' exercise of its spending power. Congress can, through the power of the purse, deal with any subject involving diplomacy, involving war, as the Chairman mentioned. And Congress provided that when U.N. agencies try to take sides in the Middle East conflict and improperly admit the Palestinian Authority as a member state, despite it not meeting the international criteria for statehood, those agencies can't be funded by the U.S. taxpayer. That law is quite clear, and it applies to any U.N.-affiliated agency.    One such agency, the United Nations Framework Convention on Climate Control, has accepted the Palestinians as members. The clear effect must be that they cannot receive taxpayer funding. The Executive seems to take the position that he will nonetheless send a check to this agency on the theory that the framework convention is a treaty. It's true it is a treaty, but it is also an agency created by that treaty. I think the best proof of that is that a treaty can't deposit a check. Only a U.N. agency can deposit a check. I presume the money from the Treasury isn't being sent to the treaty. It is being sent to the U.N. agency, and that's exactly what the law prohibits.    Thank you. And I would refer the Committee to my written testimony for further elaboration.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Kontorovich.    Now I recognize the gentleman Mr. Vladeck for his testimony.</t>
   </si>
   <si>
-    <t>Vladeck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vladeck. Great. Thank you, Chairman King, Ranking Member Cohen, distinguished Members of the Task Force. It's an honor and a privilege to be testifying before you again.    I do fear that it has become an all too common refrain in contemporary American discourse for those who object to the wisdom of particular policy outcomes to disguise that objection behind claims of legitimacy; that is that the relevant government actor lacks the authority to effect the disputed policy outcome, never mind its wisdom or potentially its lack thereof. For example, when the Supreme Court interprets the Constitution in a manner some of us don't like, critics often object to the Court's power to even reach the contested interpretation in the first place rather than the merits of the interpretation.    In a recent essay, my friend and George Washington law professor Orin Kerr described this phenomenon, which he harshly criticized, as the politics of delegitimization. It seems to me that today's hearing is a variation on the same theme, portraying a range of perfectly legitimate substantive disagreements over various of the Obama administration's foreign policy initiatives as arrogations of executive power rather than merely as exercises of executive power with which many of us simply disagree.    Indeed, of all the areas in which President Obama has been criticized for overreaching, foreign affairs may be the context in which those claims run the hollowest. Not only does the Constitution invest the President with a wide range of inherent and, as the Supreme Court just reminded us in the Zivotofsky case, preclusive constitutional authority in the field of foreign affairs, but Congress has historically acquiesced by broadly delegating much of its own authority in this field to the President. Nor does the President overreach simply by entering into diplomatic accords without formally submitting the agreement to Congress. All three branches of the Federal Government have recognized, and shortly after the founding, that the President has the constitutional power to enter into bi- or multilateral agreements that are not treaties for constitutional purposes. Indeed, as the Congressional Research Service explained in a March 2015 report, these agreements, rather than treaties, have become the constitutional norm.    With regard to the third category of these agreements, so-called sole executive agreements, as the Supreme Court explained in 2003, our cases have recognized that the President has the authority to make executive agreements with other countries requiring no ratification by the Senate or approval by Congress. This power hasn't been exercised since the early years of the Republic. Indeed, although the extent of the President's authority to conclude executive agreements is uncertain, as one recent study concluded, the courts have never struck down a Presidential executive agreement as being unconstitutional. Instead, the contemporary debate is not over the abstract validity of sole executive agreements but rather the specific criteria that separate agreements that ought--that separate--pardon me, agreements that ought not to be required in congressional involvement from those that should. To be frank, there are no bright lines, but by far, the two most important criteria for assessing whether the President should submit an international agreement to Congress are whether the agreement is inconsistent with and could not be implemented on the basis of existing U.S. law and whether the agreement establishes binding legal rules or financial commitments with which the United States comply. Unless the answer to both questions is yes, history, practice, and precedent all suggest that the President is acting within his constitutional authority when he enters into such a sole executive agreement.    As my written testimony explains in more detail, I'm hard pressed, in light of these criteria, to see the argument that my colleagues make that President Obama was constitutionally required to submit to Congress either the full Iran deal or the Paris climate agreement for many of the reasons echoed by Jack Goldsmith and John Bellinger. Obviously, I would be happy to say more about both of these lines of analysis during the Q&amp;A. But apart from the merits of these debates, it seems to me that the more important point is the extent to which efforts to portray the foreign policy of the Obama administration, as reflected in executive overreach, are another example of the phenomenon described by Professor Kerr.    Of course, this Task Force, this Committee, and this Congress may think there is more political and rhetorical gain to be had from casting these debates on legitimacy returns. But I fear that such an approach has deleterious long-term consequences for Congress' institutional role in the formation and supervision of U.S. foreign policy. After all, the more Congress focuses its critiques on ill-conceived legitimacy objections, the more it suggests, however implicitly, that all it is capable of in the field of foreign affairs is to offer such authority-driven objections to these policies as opposed to either enacting legislation that more aggressively seeks to assert Congress' own foreign policy prerogatives or taking a more active role in stimulating and raising the national level of discourse over the normative desirability of these measures. To me, Congress should be more careful going forward to seize these imperatives in the foreign policy arena.    But as Professor Goldsmith has concluded: ``I doubt Congress will be more careful in the future since it typically doesn't like and cannot organize itself to exercise the responsibility of an equal constitutional partner in the conduct of U.S. foreign relations.''    Studying the origins and trouble and persistence of that institutional shortcoming is, in my view, far more worthy of this Task Force's time than trumped-up charges of executive overreach that once subjected to meaningful scrutiny smack of nothing more than the politics of delegitimatization.    Thank you again for the opportunity to testify before the Task Force this morning, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Vladeck.    The Chair would now recognize Mr. Groves for his testimony.</t>
   </si>
   <si>
-    <t>Groves</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Groves. Thank you, Mr. Chairman, for inviting me to testify today about executive overreach in foreign affairs.    The debate over the proper scope of executive power in foreign affairs has been going on for more than 200 years. It arose during the 1793 George Washington Presidency when he declared that the U.S. would be neutral in a war between France and Great Britain. The Monroe Doctrine, FDR's Destroyers for Bases Agreement, and the Algiers Accords are just a few historical examples where significant questions have arisen regarding executive authority in the conduct of foreign affairs. And here we are in 2016 continuing this debate.    In our defense, it's not really our fault. The text of the Constitution, though fairly specific on the distribution of power in the domestic sphere, is less helpful in the foreign affairs arena. The Constitution was written to remedy certain pre-constitutional disputes. And as a result, we're forced to strain to find textual guidance to address many of the issues that arise today, particularly in foreign affairs.    There is, of course, the Commander in Chief Clause, but most of the executive's foreign affairs powers have developed through historical practice over the past two centuries. To make things more difficult, for better or worse, the Federal courts rarely intervene to clarify the limits of executive power in foreign affairs because such cases usually present nonjusticiable political questions that courts are loath to answer one way or the other.    But, today, I'd like to focus on the President's actions in the area of treaty making and how, in my view, he has overreached and even abused his authority. This Task Force has already heard testimony regarding the President's executive actions regarding immigration and health care that constitute overreach.    In the foreign affairs realm, the President does the same thing but through so-called sole executive agreements, as mentioned by Professor Vladek. Specifically, the President's decision to treat the Paris Agreement on climate change as a sole executive agreement was an overreach and an abuse of his executive authority. Never before has an international agreement of such import been treated as a sole executive agreement, not once in American history.    The President himself stated that the Paris Agreement will literally save our planet. That's a quote. And yet the agreement somehow does not rise to the level of a treaty requiring the advice and consent of the Senate. The President's actions are an overreach for several reasons, first of which is that they fly in the face of a commitment made by the executive branch to the Senate in 1992. Back then, during the ratification debate on the U.N. Framework Convention on Climate Change, the Senate was concerned President Bush or a future President would negotiate follow-on agreements that had emissions targets and timetables but not submit those follow-on agreements to the Senate. The Senate, then controlled by Democrats, required assurances that any such follow-on agreement containing targets and timetables would be submitted for approval. President Bush agreed on behalf of the executive branch, and the commitment was memorialized in the framework convention documentation during the ratification process.    Now, the next President, to his credit, lived up to that commitment. When President Clinton negotiated the Kyoto Protocol in 1997, he treated it as a treaty, something that would have to go to the Senate for advise and consent. He didn't attempt to circumnavigate the Senate. He didn't ignore the 1992 commitment. He didn't simply declare the Kyoto Protocol was a sole executive agreement that didn't require Senate approval. He stuck to the commitment because that's what Presidents should do.    But President Obama is unwilling to live up to those commitments. And the Paris Agreement certainly contains targets and timetables, but the President refuses to submit it to the Senate. That is executive overreach. The President's actions also ignore the objective criteria used by the State Department in determining whether an international agreement is a treaty versus an executive agreement, the so-called Circular 175 procedure mentioned by Chairman King. As I detail at length in my written testimony, when the eight factors of the C-175 procedure are applied, it's clear that the Paris Agreement must be treated as a treaty. But the President has chosen to ignore those factors as well as the 1992 commitment to the Senate.    Now, because of this overreach, that will not likely be remedied in Federal court, it is incumbent upon Congress to refuse to fund the implementation of the Paris Agreement until the people, through their elected Representatives, approve it, and at a minimum, this House should refuse to appropriate U.S. taxpayer dollars for the so-called Green Climate Fund or any other financial mechanism associated with the Paris Agreement or the U.N. Framework Convention. Congress should also continue to resist and disapprove of all regulations meant to implement the Paris Agreement such as the Clean Power Plan.    I thank you again for inviting me to testify, and I look forward to any of the questions that the panel has.</t>
   </si>
   <si>
@@ -295,9 +271,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you. I do appreciate the satire in satirically violating the rules of decorum of the House. I always felt it was rather satirical of somebody who had to be lying to say ``lying Ted'' or ``the most dishonest person he had ever met'' since he was the most honest man in the race.    But let's go back to this Paris Agreement, and I appreciate, Mr. Kontorovich, your written testimony. You got into more detail that the U.N. Framework Convention on Climate Change accepted the Palestinian Authority as a state party. As you say, the move is part of the Palestinian effort to be declared a state. The United States does not recognize the Palestinian Authority as a state, and U.S. policy has consistently opposed such moves. Therefore, longstanding U.S. law requires the defunding of any U.N. organization that grants Palestinian Authority such status. We also--I haven't read the Paris Agreement, but my understanding from reading articles about the Paris Agreement, the original article IX required developing nations to transfer wealth to underdeveloped nations, and normally, that would require congressional action so--and I know there was this great facade over the Iranian treaty. The Corker bill amended the Constitution with a legislative act by requiring a treaty to only get one-third of the vote of the Senate in order to be effectively ratified. I still think the Constitution is intact in that area. It should have required two-thirds to ratify what is a treaty, because it does modify a number of other treaties like with regard to missiles and proliferation. So, on one hand, I appreciate the testimony. Clearly, if we're going to be transferring American wealth, with all due respect to the President's desire to spread the wealth, that's not something he has authority under the Constitution to do without congressional concurrence. And it also does explain why after the Kyoto accords, the underdeveloped nations were all claiming: If we don't get America on board, this agreement doesn't work. What they were saying was: If America doesn't sign on, then the one country that's going to send us checks is not going to be sending us checks, which is the whole reason we're part of this; we want to get checks from the U.S. Congress, from the U.S. Treasury.    And so does anybody see a constitutional way of having the United States Treasury send money to the benefit of foreign countries without congressional concurrence in that? Anybody? Mr. Groves?</t>
   </si>
   <si>
@@ -394,9 +367,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman.    I appreciate your testimony today. Thank you very much for being here today.    Mr. Groves, one of the questions I get from my constituents on some of these deals and, in particular, the Iran deal is, how do we know whether an international agreement should be a treaty or an executive agreement?</t>
   </si>
   <si>
@@ -424,9 +394,6 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. Thank you, Mr. Chairman.    Professor Kontorovich, good to see you again. I think the last time we saw you was in Israel last fall. So we appreciate you being here and the other witnesses as well. So let me see if I can get this exactly right. This Framework on the Climate Change treaty actually in a roundabout way is circumventing Federal law and allowing the State Department--not allowing, but they are usurping and violating the law and actually sending money to an organization that--well, not even an organization, a roundabout way they are getting money to this organization which recognizes the Palestinian Authority as a state. Straighten me out on what's exactly happening here.</t>
   </si>
   <si>
@@ -539,9 +506,6 @@
   </si>
   <si>
     <t>412419</t>
-  </si>
-  <si>
-    <t>Raúl R. Labrador</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman, and thank you to the witnesses for being here today.    Mr. Groves, can you briefly describe the difference between a treaty and an executive agreement?</t>
@@ -1000,11 +964,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1024,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1052,11 +1012,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1076,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1102,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1128,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1154,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1180,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1206,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1232,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1258,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1284,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1310,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1336,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1362,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1388,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1414,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1440,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1466,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1492,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1520,11 +1444,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1544,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1572,11 +1492,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1596,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1624,11 +1540,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1648,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1676,11 +1588,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1700,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1728,11 +1636,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1752,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1780,11 +1684,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1804,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1832,11 +1732,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1856,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1884,11 +1780,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1908,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1936,11 +1828,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1960,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1988,11 +1876,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2012,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2040,11 +1924,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2064,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2090,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2116,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2144,11 +2020,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2168,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2196,11 +2068,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2220,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2246,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2272,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2298,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2324,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2350,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2376,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2402,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2428,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2454,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2480,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2506,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2532,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2558,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
-      </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2584,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2610,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2636,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2664,11 +2500,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2688,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2716,11 +2548,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2740,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2766,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
-      </c>
-      <c r="G70" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2792,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2818,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
-      </c>
-      <c r="G72" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2844,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2870,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G74" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2896,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2922,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2948,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>93</v>
-      </c>
-      <c r="H77" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2974,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G78" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3000,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3028,11 +2836,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3052,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3078,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
-      </c>
-      <c r="G82" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3104,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3130,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3156,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3182,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3208,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
-      </c>
-      <c r="G87" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3234,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3260,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
-      </c>
-      <c r="G89" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3286,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3312,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
-      </c>
-      <c r="G91" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3338,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3364,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
-      </c>
-      <c r="G93" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3390,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3416,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
-      </c>
-      <c r="G95" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3442,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
-      </c>
-      <c r="G96" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3468,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
-      </c>
-      <c r="G97" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3494,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G98" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3522,11 +3292,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3546,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3572,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
-      </c>
-      <c r="G101" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3598,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3624,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
-      </c>
-      <c r="G103" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3650,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3676,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
-      </c>
-      <c r="G105" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3702,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3730,11 +3484,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3754,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>135</v>
-      </c>
-      <c r="G108" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3780,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
-      </c>
-      <c r="G109" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3806,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3832,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G111" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3858,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3884,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
-      </c>
-      <c r="G113" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3910,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>135</v>
-      </c>
-      <c r="G114" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3936,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
-      </c>
-      <c r="G115" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3962,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3988,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
-      </c>
-      <c r="G117" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4014,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
+        <v>125</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>135</v>
-      </c>
-      <c r="G118" t="s">
-        <v>136</v>
-      </c>
-      <c r="H118" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4040,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
-      </c>
-      <c r="G119" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4066,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4092,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
-      </c>
-      <c r="G121" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4118,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4144,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
-      </c>
-      <c r="G123" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4170,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4196,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
-      </c>
-      <c r="G125" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4222,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4248,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
-      </c>
-      <c r="G127" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4274,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4300,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
-      </c>
-      <c r="G129" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4326,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4352,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
-      </c>
-      <c r="G131" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4378,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>135</v>
-      </c>
-      <c r="G132" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4404,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
-      </c>
-      <c r="G133" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4430,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
-      </c>
-      <c r="G134" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4456,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
-      </c>
-      <c r="G135" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4482,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
-      </c>
-      <c r="G136" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4508,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
-      </c>
-      <c r="G137" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4534,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>135</v>
-      </c>
-      <c r="G138" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4560,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
-      </c>
-      <c r="G139" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4586,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>135</v>
-      </c>
-      <c r="G140" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4612,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
-      </c>
-      <c r="G141" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4638,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>135</v>
-      </c>
-      <c r="G142" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4664,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
-      </c>
-      <c r="G143" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4690,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>135</v>
-      </c>
-      <c r="G144" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4716,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
-      </c>
-      <c r="G145" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4742,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>135</v>
-      </c>
-      <c r="G146" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4770,11 +4444,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4794,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G148" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4820,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
-      </c>
-      <c r="G149" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4846,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>174</v>
-      </c>
-      <c r="G150" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4872,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
-      </c>
-      <c r="G151" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4898,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>174</v>
-      </c>
-      <c r="G152" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4924,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
-      </c>
-      <c r="G153" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4950,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>174</v>
-      </c>
-      <c r="G154" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4976,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
-      </c>
-      <c r="G155" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5002,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>174</v>
-      </c>
-      <c r="G156" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5028,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
-      </c>
-      <c r="G157" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5054,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
+        <v>163</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
         <v>174</v>
-      </c>
-      <c r="G158" t="s">
-        <v>175</v>
-      </c>
-      <c r="H158" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5080,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
-      </c>
-      <c r="G159" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5106,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>174</v>
-      </c>
-      <c r="G160" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5132,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
-      </c>
-      <c r="G161" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5158,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>174</v>
-      </c>
-      <c r="G162" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5184,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
-      </c>
-      <c r="G163" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5210,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>174</v>
-      </c>
-      <c r="G164" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5236,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
-      </c>
-      <c r="G165" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5262,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>174</v>
-      </c>
-      <c r="G166" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5290,11 +4924,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20106.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20106.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. The Executive Overreach Task Force will come to order. And, without objection, the Chair is authorized to declare a recess of the Task Force at any time. I'll recognize myself for opening statement.    Today's hearing will focus on executive overreach in foreign affairs. The Constitution grants the President as Commander in Chief clear powers in foreign affairs. However, the Constitution also provides for a check on those powers by, for example, requiring that the Senate approval international treaties and that Congress appropriate all funds needed to foreign military engagements.    I'll focus my remarks today on two troubling developments as it relates to those checks the Constitution grants to the Congress and not the President. Regarding the Senate's treaty ratification powers in Paris late last year, the Obama administration also took part in the 21st Conference of Parties to the United Nations Framework Convention on Climate Change.    Senior Administration officials, including Secretary of State John Kerry, Environmental Protection Agency Administrator Gina McCarthy, and Secretary of Energy Ernest Moniz--who visited Ames, Iowa, just this past week, and I thank him for that--negotiated the final terms of a new climate change pact, the so-called Paris Agreement. The agreement involves the commitments that will affect every part of the U.S. And the Obama administration intends to meet those commitments by requiring changes to State law. These Paris Agreement criteria and others listed by the State Department itself in what's called the Circular 175 procedure show clearly that the Paris Agreement is a treaty that requires the approval the Senate, under Article II, Section 2, Clause 2, of the Constitution, which provides the President shall have power by and with the advice and consent of the Senate to make treaties provided two-thirds of the Senators present concur.    Despite this, President Obama has made clear through his spokesperson that he has no intention of consulting or including either the Senate or anyone in Congress in any aspect of the international treaty. On March 31, 2015, White House spokesman Josh Earnest was asked at a press conference briefing whether Congress has the right to approve the Paris Agreement. Mr. Earnest responded, speaking for the President, as follows, ''I think it's hard to take seriously from some Members of Congress who deny the fact that climate change exists that they should have some opportunity to render judgment about a climate change agreement.''    Well, think of that for a moment. The chief spokesperson said that, simply because Members of Congress disagree with the President's environmental policies, the constitutional requirement that a treaty be submitted to the Senate for approval is negated. That's outrageous, and it's unlawful. And it's a clear example of the executive overreach in the area of foreign affairs.    Regarding the President's powers in war, the President does have much greater constitutional authority in the areas of military affairs than he does in domestic affairs. Yet, even in the case of war, the President's powers are not unlimited. One clear limitation on that power is Congress' constitutional authority to appropriate all Federal funds for use on anything, including war. Yet President Obama has evaded Congress' control over military appropriations, as many Presidents have, by using accounting gimmicks to move funds Congress approved for one purpose to another, as was done to pay for the U.S. intervention in Libya.    Today, Congress' power of the purse is weakened because the President has many ways to evade Congress' control over military appropriations, namely accounting procedures to move funds Congress approved for one purpose to another purpose Congress has not approved.    In the case of the intervention in Libya, President Obama paid for that conflict entirely out of funds reallocated from other Defense Department accounts. Harold Koh, President Obama's own former legal adviser to the Department of State, has also written that the President has developed over time a whole range of devices to exploit spending loopholes in the appropriation process. When Congress grants the President statutory drawdown authority, he may withdraw certain funds simply by determining that such withdrawals are vital to the security of the United States. Similar statutory provisions allow the President access to special and contingency funds based upon nebulous findings that the use of those funds is important to the security of the United States or to the national interest.    When given statutory transfer and reprogramming authority, the President has transferred--the President transfers to one appropriations account funds initially appropriated for another or may reprogram appropriated funds within a single appropriation account, often without specific statutory authority. This is yet another example of executive overreach, albeit it one that Congress has been complicit to some extent. Nevertheless, it is an issue that this Task Force should consider.    And I also am thinking about the Iranian treaty agreement, and I expect there will be some remarks with regard to that a little bit later today. And I would point out that Congress has controlled funds with regard to war and done so effectively. And if one would read back through the appropriations debate and language that shut off all funds to support the Vietnam war: In the land of Vietnam and the seas adjacent to it, the skies over it, or the countries adjacent to it, or the skies over them, no funds would be used to conduct the Vietnam war. And it effectively, I'll say, de facto took ammunition off the docks at Da Nang by an act of Congress by using the appropriations language to shut down a war. So that's an example of how a President did honor the wishes of Congress, and we're going to want to talk today about that, but in the meantime, I look forward to hearing from all of our witnesses here today on these and many other issues.    And I would recognize the Ranking Member, Mr. Cohen from Tennessee, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair. I would first like to submit for the record my prepared marks, which I will not refer to in my remarks, for entry into the record.</t>
   </si>
   <si>
@@ -70,6 +82,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Oh, no. You were the one in the Cadillac driving by.</t>
   </si>
   <si>
@@ -124,6 +142,12 @@
     <t>400154</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Well, thank you, Chairman King, for convening this third hearing of the Task Force on Executive Overreach. And I've been very interested to hear the dialogue I've just heard and especially the comments of the Ranking Member, because I look forward to the transition that will take place when we have a bipartisan effort to halt executive overreach, because it occurs in every Administration of both parties. It's occurring right now. And the point isn't whether you believe in a particular point of view about climate change or whether you believe in the necessity of doing something about nuclear weapons in Iran, we all agree on the need to do some things, not necessarily do the same things. The question is, under the United States Constitution, who has the authority to do it? And there we have a serious difference of opinion.    I have to tell you: one of the lowest days in the time that I have served in Congress was the day that President Obama came to the House to give his State of the Union address before a Joint Session of the Congress, and at the end of his long laundry list of things that he wanted Congress to do, that every President has of either party--they always have a list of things they want done--at the end of his, he said, ``And if you don't do it, I will.'' By what authority under the United States Constitution? And the really--the reason why it was such a low day for me was that so many Members of your party stood up and gave a standing ovation to the President when he said: I'm going to take your power, the people's power in the elected Representatives of the Congress, and I'm going to use them for other purposes.    Mr. Chairman, could I have order?</t>
   </si>
   <si>
@@ -139,6 +163,12 @@
     <t>400080</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    I welcome the witnesses.    And to my colleagues, the issue of appropriate roles of the Congress and the President is a subject worthy of a genuinely substantive discussion. And I think it's a very important discussion that's involved in the hearing today. For instance, we could consider whether our Nation's current military operations against the Islamic State of Iraq and Syria have been properly authorized by Congress. I won't go into detail, but I'm involved in research on that subject at the present moment.    Unfortunately, today's hearings may be turning into an attack against the current Administration. Let's start off with this proposition: neither the Iran nuclear agreement nor the Paris climate change agreement is a treaty within the meaning of the Constitution's Treaty Clause that requires Senate consent.    The Paris climate change agreement, for example, contains no mandatory quantitative emission standards or reductions. Rather, it is a strong exhortation that parties take concrete, transparent, but ultimately self-directed steps to reduce greenhouse gas emissions. Contrary to the assertions of some, this agreement does not contain legally binding requirements, nor does it purport to grant new authority to the President to meet any such requirements.    In short, it doesn't meet the traditional criteria of a treaty within the meaning of the Treaty Clause. And the Iran agreement was a set of political commitments rather than legally binding requirements. Thus, it also was not constitutionally required to be subject to Senate approval.    In addition, both agreements are consistent with existing law of the United States of America. For instance, the statutes imposing sanctions on Iran for its nuclear weapons program also give the President the discretion to remove these sanctions should certain criteria be met. And the Paris climate agreement was reached pursuant to a 1992 climate change treaty that the Senate had already ratified. In other words, the Paris Agreement is consistent with the obligations created by a treaty that, under the Supremacy Clause, was already the law of the land.    Now, as professor Vladeck correctly notes, arguments questioning the legality of these agreements are part of an ongoing attempt to paint policy disputes as constitutional matters. Whatever one thinks about the merits of either the Iran nuclear agreement or the Paris climate agreement, the Constitution and the historical practice make clear that the President was within his authority to enter into them. At any rate, Congress has already had the opportunity to make its voice heard.    With respect to the Iran nuclear agreement, Congress had the chance to disapprove the agreement, but opponents of the agreement failed to obtain the necessary votes to prevent the agreement from taking effect. And as I noted and conclude, the Senate long ago ratified the climate change treaty pursuant to which the Paris Agreement was entered. So rather than sparking enlightened discussion, today's hearing I fear may be a string of partisan exercises by the Task Force, but I think it's important that we move on, and I thank our witnesses for appearing today. I look forward to hearing their testimony, and I thank the Chair.</t>
   </si>
   <si>
@@ -148,18 +178,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kontorovich</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kontorovich. Thank you, Chairman King, Ranking Member Cohen, Ranking Member of the Committee Conyers and honorable Members of Committee. It is a great pleasure to be here today to discuss these matters with you.    I'll state one thing for the record: I have the pleasure to say we are now the Northwestern Pritzker School of Law. And our generous donor would be happy to hear me say that, I hope. So the executive, nobody would dispute, has vast discretion in foreign affairs, discretion imparted both by the Constitution, which gives the executive a primary role in the conduct of foreign affairs because of the greater capacity of a single individual to enter into negotiations and conduct dealings with foreign countries and also because Congress on top of that already broad discretion, has given the executive vast leeway through statutes that allow for waivers and many other delegations of broad authority.    However, Congress also has constitutional powers, core Article I powers, including the foreign commerce power, spending power, which can greatly affect foreign affairs. And when these powers are exercised in the realm of foreign affairs, they are no less valid and no less plenipotentiary because they involve diplomacy or matters involving other countries.    Now, indeed, because the executive's powers in foreign affairs are so broad, it is hard for the executive to overreach. It's hard. But that makes it all the more amazing and all the more worrisome when the executive does indeed overreach. Because when one has vast power, claiming even more is even more problematic.    I'm going to briefly mention two examples, two recent examples, of what I see as such overreach, involving two core Article I powers of Congress: the foreign commerce power, involving the Iran Sanctions Act, and the spending power, involving funding to certain United Nations agencies.    As Chairman Goodlatte mentioned, the Iran Sanctions Review Act requires that the President transmit, as a condition for the sanctions relief that the act enables, that the President transmit the entire agreement. The language of this provision in the Iran Review Act is extraordinarily vast, and it looks like it was written by teams of redundant lawyers. And it bears quoting again: ``these agreements include appendices, annexes, codicils, side agreements, implementing materials, documents''--that's one broad category; the question is, is this a ``document?''--``guidance, technical or other understandings,'' and lots of other stuff.    The question is, are the relevant materials involving arrangements between the International Atomic Energy Agency and Iran, for inspection and review of their nuclear program, is that a document, material, codicil, and so forth, under the deal? And it seems quite clear that it is. It's actually mentioned and incorporated by reference in the Joint Comprehensive Plan of Action itself, and as such, it must be transmitted to Congress for the review period under the act to begin.    If that review period does not begin, sanctions cannot be lifted. It is true, as Ranking Member Conyers pointed out, that prior statutory sanctions had waiver provisions. But just as Congress can allow the President to waive, it can cabin and take back that waiver authority, which is exactly what happened in the Iran Nuclear Sanctions Review Act. As a result, the current lifting of some sanctions is legally problematic, and even more troubling is the executive's apparent desire to leverage this to now intimidate states into abandoning their lawful sanctions, which, again, the Iran Nuclear Review Act would prohibit.    Now, a separate law involves Congress' exercise of its spending power. Congress can, through the power of the purse, deal with any subject involving diplomacy, involving war, as the Chairman mentioned. And Congress provided that when U.N. agencies try to take sides in the Middle East conflict and improperly admit the Palestinian Authority as a member state, despite it not meeting the international criteria for statehood, those agencies can't be funded by the U.S. taxpayer. That law is quite clear, and it applies to any U.N.-affiliated agency.    One such agency, the United Nations Framework Convention on Climate Control, has accepted the Palestinians as members. The clear effect must be that they cannot receive taxpayer funding. The Executive seems to take the position that he will nonetheless send a check to this agency on the theory that the framework convention is a treaty. It's true it is a treaty, but it is also an agency created by that treaty. I think the best proof of that is that a treaty can't deposit a check. Only a U.N. agency can deposit a check. I presume the money from the Treasury isn't being sent to the treaty. It is being sent to the U.N. agency, and that's exactly what the law prohibits.    Thank you. And I would refer the Committee to my written testimony for further elaboration.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Kontorovich.    Now I recognize the gentleman Mr. Vladeck for his testimony.</t>
   </si>
   <si>
+    <t>Vladeck</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vladeck. Great. Thank you, Chairman King, Ranking Member Cohen, distinguished Members of the Task Force. It's an honor and a privilege to be testifying before you again.    I do fear that it has become an all too common refrain in contemporary American discourse for those who object to the wisdom of particular policy outcomes to disguise that objection behind claims of legitimacy; that is that the relevant government actor lacks the authority to effect the disputed policy outcome, never mind its wisdom or potentially its lack thereof. For example, when the Supreme Court interprets the Constitution in a manner some of us don't like, critics often object to the Court's power to even reach the contested interpretation in the first place rather than the merits of the interpretation.    In a recent essay, my friend and George Washington law professor Orin Kerr described this phenomenon, which he harshly criticized, as the politics of delegitimization. It seems to me that today's hearing is a variation on the same theme, portraying a range of perfectly legitimate substantive disagreements over various of the Obama administration's foreign policy initiatives as arrogations of executive power rather than merely as exercises of executive power with which many of us simply disagree.    Indeed, of all the areas in which President Obama has been criticized for overreaching, foreign affairs may be the context in which those claims run the hollowest. Not only does the Constitution invest the President with a wide range of inherent and, as the Supreme Court just reminded us in the Zivotofsky case, preclusive constitutional authority in the field of foreign affairs, but Congress has historically acquiesced by broadly delegating much of its own authority in this field to the President. Nor does the President overreach simply by entering into diplomatic accords without formally submitting the agreement to Congress. All three branches of the Federal Government have recognized, and shortly after the founding, that the President has the constitutional power to enter into bi- or multilateral agreements that are not treaties for constitutional purposes. Indeed, as the Congressional Research Service explained in a March 2015 report, these agreements, rather than treaties, have become the constitutional norm.    With regard to the third category of these agreements, so-called sole executive agreements, as the Supreme Court explained in 2003, our cases have recognized that the President has the authority to make executive agreements with other countries requiring no ratification by the Senate or approval by Congress. This power hasn't been exercised since the early years of the Republic. Indeed, although the extent of the President's authority to conclude executive agreements is uncertain, as one recent study concluded, the courts have never struck down a Presidential executive agreement as being unconstitutional. Instead, the contemporary debate is not over the abstract validity of sole executive agreements but rather the specific criteria that separate agreements that ought--that separate--pardon me, agreements that ought not to be required in congressional involvement from those that should. To be frank, there are no bright lines, but by far, the two most important criteria for assessing whether the President should submit an international agreement to Congress are whether the agreement is inconsistent with and could not be implemented on the basis of existing U.S. law and whether the agreement establishes binding legal rules or financial commitments with which the United States comply. Unless the answer to both questions is yes, history, practice, and precedent all suggest that the President is acting within his constitutional authority when he enters into such a sole executive agreement.    As my written testimony explains in more detail, I'm hard pressed, in light of these criteria, to see the argument that my colleagues make that President Obama was constitutionally required to submit to Congress either the full Iran deal or the Paris climate agreement for many of the reasons echoed by Jack Goldsmith and John Bellinger. Obviously, I would be happy to say more about both of these lines of analysis during the Q&amp;A. But apart from the merits of these debates, it seems to me that the more important point is the extent to which efforts to portray the foreign policy of the Obama administration, as reflected in executive overreach, are another example of the phenomenon described by Professor Kerr.    Of course, this Task Force, this Committee, and this Congress may think there is more political and rhetorical gain to be had from casting these debates on legitimacy returns. But I fear that such an approach has deleterious long-term consequences for Congress' institutional role in the formation and supervision of U.S. foreign policy. After all, the more Congress focuses its critiques on ill-conceived legitimacy objections, the more it suggests, however implicitly, that all it is capable of in the field of foreign affairs is to offer such authority-driven objections to these policies as opposed to either enacting legislation that more aggressively seeks to assert Congress' own foreign policy prerogatives or taking a more active role in stimulating and raising the national level of discourse over the normative desirability of these measures. To me, Congress should be more careful going forward to seize these imperatives in the foreign policy arena.    But as Professor Goldsmith has concluded: ``I doubt Congress will be more careful in the future since it typically doesn't like and cannot organize itself to exercise the responsibility of an equal constitutional partner in the conduct of U.S. foreign relations.''    Studying the origins and trouble and persistence of that institutional shortcoming is, in my view, far more worthy of this Task Force's time than trumped-up charges of executive overreach that once subjected to meaningful scrutiny smack of nothing more than the politics of delegitimatization.    Thank you again for the opportunity to testify before the Task Force this morning, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Vladeck.    The Chair would now recognize Mr. Groves for his testimony.</t>
   </si>
   <si>
+    <t>Groves</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Groves. Thank you, Mr. Chairman, for inviting me to testify today about executive overreach in foreign affairs.    The debate over the proper scope of executive power in foreign affairs has been going on for more than 200 years. It arose during the 1793 George Washington Presidency when he declared that the U.S. would be neutral in a war between France and Great Britain. The Monroe Doctrine, FDR's Destroyers for Bases Agreement, and the Algiers Accords are just a few historical examples where significant questions have arisen regarding executive authority in the conduct of foreign affairs. And here we are in 2016 continuing this debate.    In our defense, it's not really our fault. The text of the Constitution, though fairly specific on the distribution of power in the domestic sphere, is less helpful in the foreign affairs arena. The Constitution was written to remedy certain pre-constitutional disputes. And as a result, we're forced to strain to find textual guidance to address many of the issues that arise today, particularly in foreign affairs.    There is, of course, the Commander in Chief Clause, but most of the executive's foreign affairs powers have developed through historical practice over the past two centuries. To make things more difficult, for better or worse, the Federal courts rarely intervene to clarify the limits of executive power in foreign affairs because such cases usually present nonjusticiable political questions that courts are loath to answer one way or the other.    But, today, I'd like to focus on the President's actions in the area of treaty making and how, in my view, he has overreached and even abused his authority. This Task Force has already heard testimony regarding the President's executive actions regarding immigration and health care that constitute overreach.    In the foreign affairs realm, the President does the same thing but through so-called sole executive agreements, as mentioned by Professor Vladek. Specifically, the President's decision to treat the Paris Agreement on climate change as a sole executive agreement was an overreach and an abuse of his executive authority. Never before has an international agreement of such import been treated as a sole executive agreement, not once in American history.    The President himself stated that the Paris Agreement will literally save our planet. That's a quote. And yet the agreement somehow does not rise to the level of a treaty requiring the advice and consent of the Senate. The President's actions are an overreach for several reasons, first of which is that they fly in the face of a commitment made by the executive branch to the Senate in 1992. Back then, during the ratification debate on the U.N. Framework Convention on Climate Change, the Senate was concerned President Bush or a future President would negotiate follow-on agreements that had emissions targets and timetables but not submit those follow-on agreements to the Senate. The Senate, then controlled by Democrats, required assurances that any such follow-on agreement containing targets and timetables would be submitted for approval. President Bush agreed on behalf of the executive branch, and the commitment was memorialized in the framework convention documentation during the ratification process.    Now, the next President, to his credit, lived up to that commitment. When President Clinton negotiated the Kyoto Protocol in 1997, he treated it as a treaty, something that would have to go to the Senate for advise and consent. He didn't attempt to circumnavigate the Senate. He didn't ignore the 1992 commitment. He didn't simply declare the Kyoto Protocol was a sole executive agreement that didn't require Senate approval. He stuck to the commitment because that's what Presidents should do.    But President Obama is unwilling to live up to those commitments. And the Paris Agreement certainly contains targets and timetables, but the President refuses to submit it to the Senate. That is executive overreach. The President's actions also ignore the objective criteria used by the State Department in determining whether an international agreement is a treaty versus an executive agreement, the so-called Circular 175 procedure mentioned by Chairman King. As I detail at length in my written testimony, when the eight factors of the C-175 procedure are applied, it's clear that the Paris Agreement must be treated as a treaty. But the President has chosen to ignore those factors as well as the 1992 commitment to the Senate.    Now, because of this overreach, that will not likely be remedied in Federal court, it is incumbent upon Congress to refuse to fund the implementation of the Paris Agreement until the people, through their elected Representatives, approve it, and at a minimum, this House should refuse to appropriate U.S. taxpayer dollars for the so-called Green Climate Fund or any other financial mechanism associated with the Paris Agreement or the U.N. Framework Convention. Congress should also continue to resist and disapprove of all regulations meant to implement the Paris Agreement such as the Clean Power Plan.    I thank you again for inviting me to testify, and I look forward to any of the questions that the panel has.</t>
   </si>
   <si>
@@ -271,6 +310,12 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you. I do appreciate the satire in satirically violating the rules of decorum of the House. I always felt it was rather satirical of somebody who had to be lying to say ``lying Ted'' or ``the most dishonest person he had ever met'' since he was the most honest man in the race.    But let's go back to this Paris Agreement, and I appreciate, Mr. Kontorovich, your written testimony. You got into more detail that the U.N. Framework Convention on Climate Change accepted the Palestinian Authority as a state party. As you say, the move is part of the Palestinian effort to be declared a state. The United States does not recognize the Palestinian Authority as a state, and U.S. policy has consistently opposed such moves. Therefore, longstanding U.S. law requires the defunding of any U.N. organization that grants Palestinian Authority such status. We also--I haven't read the Paris Agreement, but my understanding from reading articles about the Paris Agreement, the original article IX required developing nations to transfer wealth to underdeveloped nations, and normally, that would require congressional action so--and I know there was this great facade over the Iranian treaty. The Corker bill amended the Constitution with a legislative act by requiring a treaty to only get one-third of the vote of the Senate in order to be effectively ratified. I still think the Constitution is intact in that area. It should have required two-thirds to ratify what is a treaty, because it does modify a number of other treaties like with regard to missiles and proliferation. So, on one hand, I appreciate the testimony. Clearly, if we're going to be transferring American wealth, with all due respect to the President's desire to spread the wealth, that's not something he has authority under the Constitution to do without congressional concurrence. And it also does explain why after the Kyoto accords, the underdeveloped nations were all claiming: If we don't get America on board, this agreement doesn't work. What they were saying was: If America doesn't sign on, then the one country that's going to send us checks is not going to be sending us checks, which is the whole reason we're part of this; we want to get checks from the U.S. Congress, from the U.S. Treasury.    And so does anybody see a constitutional way of having the United States Treasury send money to the benefit of foreign countries without congressional concurrence in that? Anybody? Mr. Groves?</t>
   </si>
   <si>
@@ -367,6 +412,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman.    I appreciate your testimony today. Thank you very much for being here today.    Mr. Groves, one of the questions I get from my constituents on some of these deals and, in particular, the Iran deal is, how do we know whether an international agreement should be a treaty or an executive agreement?</t>
   </si>
   <si>
@@ -394,6 +445,12 @@
     <t>412226</t>
   </si>
   <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jordan. Thank you, Mr. Chairman.    Professor Kontorovich, good to see you again. I think the last time we saw you was in Israel last fall. So we appreciate you being here and the other witnesses as well. So let me see if I can get this exactly right. This Framework on the Climate Change treaty actually in a roundabout way is circumventing Federal law and allowing the State Department--not allowing, but they are usurping and violating the law and actually sending money to an organization that--well, not even an organization, a roundabout way they are getting money to this organization which recognizes the Palestinian Authority as a state. Straighten me out on what's exactly happening here.</t>
   </si>
   <si>
@@ -506,6 +563,12 @@
   </si>
   <si>
     <t>412419</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Raúl</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman, and thank you to the witnesses for being here today.    Mr. Groves, can you briefly describe the difference between a treaty and an executive agreement?</t>
@@ -914,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,7 +985,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,3989 +1007,4692 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G74" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G76" t="s">
+        <v>60</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G77" t="s">
+        <v>98</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G78" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G81" t="s">
+        <v>49</v>
+      </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G82" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G83" t="s">
+        <v>49</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G85" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G86" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G87" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G88" t="s">
+        <v>49</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G89" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G90" t="s">
+        <v>49</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G91" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G92" t="s">
+        <v>49</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G94" t="s">
+        <v>49</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G95" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G96" t="s">
+        <v>49</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G97" t="s">
+        <v>60</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G98" t="s">
+        <v>49</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G100" t="s">
+        <v>132</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G101" t="s">
+        <v>60</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G102" t="s">
+        <v>132</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G103" t="s">
+        <v>60</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G105" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G106" t="s">
+        <v>132</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
       <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G109" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G110" t="s">
+        <v>143</v>
+      </c>
       <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G111" t="s">
+        <v>54</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G112" t="s">
+        <v>143</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G114" t="s">
+        <v>143</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G115" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G116" t="s">
+        <v>143</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G118" t="s">
+        <v>143</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G119" t="s">
+        <v>54</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G120" t="s">
+        <v>143</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G121" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>125</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G122" t="s">
+        <v>143</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G123" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>125</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G124" t="s">
+        <v>143</v>
+      </c>
       <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G125" t="s">
+        <v>54</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>125</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G126" t="s">
+        <v>143</v>
+      </c>
       <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G127" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>125</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G128" t="s">
+        <v>143</v>
+      </c>
       <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>125</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G130" t="s">
+        <v>143</v>
+      </c>
       <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G131" t="s">
+        <v>54</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>125</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G132" t="s">
+        <v>143</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G133" t="s">
+        <v>54</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>125</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G134" t="s">
+        <v>143</v>
+      </c>
       <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G135" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>125</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G136" t="s">
+        <v>143</v>
+      </c>
       <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G137" t="s">
+        <v>60</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>125</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G138" t="s">
+        <v>143</v>
+      </c>
       <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G139" t="s">
+        <v>60</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>125</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G140" t="s">
+        <v>143</v>
+      </c>
       <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G141" t="s">
+        <v>60</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>125</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G142" t="s">
+        <v>143</v>
+      </c>
       <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G143" t="s">
+        <v>60</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>125</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G144" t="s">
+        <v>143</v>
+      </c>
       <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G145" t="s">
+        <v>60</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>125</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G146" t="s">
+        <v>143</v>
+      </c>
       <c r="H146" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G148" t="s">
+        <v>183</v>
+      </c>
       <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G149" t="s">
+        <v>60</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>163</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G150" t="s">
+        <v>183</v>
+      </c>
       <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G151" t="s">
+        <v>60</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>163</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G152" t="s">
+        <v>183</v>
+      </c>
       <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G153" t="s">
+        <v>60</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>163</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G154" t="s">
+        <v>183</v>
+      </c>
       <c r="H154" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G155" t="s">
+        <v>60</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>163</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G156" t="s">
+        <v>183</v>
+      </c>
       <c r="H156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G157" t="s">
+        <v>60</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>163</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G158" t="s">
+        <v>183</v>
+      </c>
       <c r="H158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G159" t="s">
+        <v>60</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>163</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G160" t="s">
+        <v>183</v>
+      </c>
       <c r="H160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G161" t="s">
+        <v>60</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>163</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G162" t="s">
+        <v>183</v>
+      </c>
       <c r="H162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G163" t="s">
+        <v>54</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>163</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G164" t="s">
+        <v>183</v>
+      </c>
       <c r="H164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G165" t="s">
+        <v>54</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>163</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G166" t="s">
+        <v>183</v>
+      </c>
       <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20106.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20106.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400220</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>400154</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Goodlatte</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
   </si>
   <si>
     <t>400080</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Conyers</t>
@@ -977,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,7 +997,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,4689 +1022,5060 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
         <v>16</v>
       </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
         <v>16</v>
       </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
         <v>16</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
         <v>16</v>
       </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
         <v>16</v>
       </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
         <v>16</v>
       </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
         <v>16</v>
       </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
         <v>16</v>
       </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
         <v>16</v>
       </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
         <v>16</v>
       </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" t="s">
-        <v>60</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G75" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76" t="s">
-        <v>60</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G79" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" t="s">
-        <v>57</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" t="s">
-        <v>54</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>58</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" t="s">
-        <v>57</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86" t="s">
-        <v>54</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>58</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" t="s">
-        <v>57</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>61</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" t="s">
-        <v>57</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
-      </c>
-      <c r="G91" t="s">
-        <v>54</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>58</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H92" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" t="s">
-        <v>57</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>61</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" t="s">
-        <v>54</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>58</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H96" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" t="s">
-        <v>60</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G100" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>53</v>
-      </c>
-      <c r="G101" t="s">
-        <v>60</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G102" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>53</v>
-      </c>
-      <c r="G103" t="s">
-        <v>60</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" t="s">
-        <v>54</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>58</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G106" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G108" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109" t="s">
-        <v>54</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>58</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G110" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>53</v>
-      </c>
-      <c r="G111" t="s">
-        <v>54</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>58</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>53</v>
-      </c>
-      <c r="G113" t="s">
-        <v>54</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>53</v>
-      </c>
-      <c r="G115" t="s">
-        <v>54</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>58</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G116" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" t="s">
-        <v>54</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>58</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G118" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>53</v>
-      </c>
-      <c r="G119" t="s">
-        <v>54</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>58</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G120" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>53</v>
-      </c>
-      <c r="G121" t="s">
-        <v>54</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>58</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
-      </c>
-      <c r="G123" t="s">
-        <v>54</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>58</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G124" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I124" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>53</v>
-      </c>
-      <c r="G125" t="s">
-        <v>54</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>58</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G126" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>53</v>
-      </c>
-      <c r="G127" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>58</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G128" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>53</v>
-      </c>
-      <c r="G129" t="s">
-        <v>54</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>58</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G130" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>53</v>
-      </c>
-      <c r="G131" t="s">
-        <v>54</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>58</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G132" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I132" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>53</v>
-      </c>
-      <c r="G133" t="s">
-        <v>54</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>58</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G134" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I134" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" t="s">
-        <v>54</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>58</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G136" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I136" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>53</v>
-      </c>
-      <c r="G137" t="s">
-        <v>60</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>64</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G138" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>53</v>
-      </c>
-      <c r="G139" t="s">
-        <v>60</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>64</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G140" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141" t="s">
-        <v>60</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>64</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G142" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
-      </c>
-      <c r="G143" t="s">
-        <v>60</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>64</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G144" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I144" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>53</v>
-      </c>
-      <c r="G145" t="s">
-        <v>60</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>64</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G146" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I146" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G148" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>53</v>
-      </c>
-      <c r="G149" t="s">
-        <v>60</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>64</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G150" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>53</v>
-      </c>
-      <c r="G151" t="s">
-        <v>60</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>64</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G152" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>53</v>
-      </c>
-      <c r="G153" t="s">
-        <v>60</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>64</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G154" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I154" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>53</v>
-      </c>
-      <c r="G155" t="s">
-        <v>60</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>64</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G156" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I156" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J156" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>53</v>
-      </c>
-      <c r="G157" t="s">
-        <v>60</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>64</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G158" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>53</v>
-      </c>
-      <c r="G159" t="s">
-        <v>60</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>64</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G160" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I160" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>53</v>
-      </c>
-      <c r="G161" t="s">
-        <v>60</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>64</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G162" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I162" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
-      </c>
-      <c r="G163" t="s">
-        <v>54</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>58</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G164" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I164" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>53</v>
-      </c>
-      <c r="G165" t="s">
-        <v>54</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>58</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G166" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I166" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>204</v>
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
